--- a/spreadsheet/security_checklist.ja.xlsx
+++ b/spreadsheet/security_checklist.ja.xlsx
@@ -1652,18 +1652,18 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>推奨 事項</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>すべての推奨事項は、必要でない場合は修復または無効にされました。</t>
+          <t>Azure AD アプリケーション プロキシを使用する場合は、Microsoft Defender for Cloud Apps との統合を検討して、アプリケーションのアクセスをリアルタイムで監視し、高度なセキュリティ制御を適用することを検討してください。</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1703,17 +1703,13 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>セキュリティスコア&gt;70%</t>
-        </is>
-      </c>
-      <c r="D21" s="22" t="inlineStr">
-        <is>
-          <t>マイクロソフトのすべてのお客様の最小目標は 70% です。</t>
-        </is>
-      </c>
+          <t>すべての推奨事項は、必要でない場合は修復または無効にされました。</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1724,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1732,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1748,18 +1744,22 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>セキュリティアラート</t>
+          <t>推奨 事項</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ警告には、過去 24 時間以内に生成されたもののみが含まれます (古いセキュリティ警告を修復または無効にする)</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="n"/>
+          <t>セキュリティスコア&gt;70%</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>マイクロソフトのすべてのお客様の最小目標は 70% です。</t>
+        </is>
+      </c>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1770,7 +1770,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1778,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1794,12 +1794,12 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>ブック</t>
+          <t>セキュリティアラート</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>継続的エクスポートが有効になっている場合、カスタム セキュリティ ダッシュボードにパブリッシュされた既定のブック</t>
+          <t>セキュリティ警告には、過去 24 時間以内に生成されたもののみが含まれます (古いセキュリティ警告を修復または無効にする)</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1816,7 +1816,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1824,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>コミュニティ</t>
+          <t>ブック</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>お客様は「コミュニティ」ページの価値を認識しており、レビュー用に定期的なリズムを設定しています。</t>
+          <t>継続的エクスポートが有効になっている場合、カスタム セキュリティ ダッシュボードにパブリッシュされた既定のブック</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1862,7 +1862,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1870,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1886,22 +1886,18 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>セキュアスコア</t>
+          <t>コミュニティ</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Security Center によって保護されているすべてのサブスクリプションが表示されます (サブスクリプション フィルター セットなし)</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用のベストプラクティス - 透明性</t>
-        </is>
-      </c>
+          <t>お客様は「コミュニティ」ページの価値を認識しており、レビュー用に定期的なリズムを設定しています。</t>
+        </is>
+      </c>
+      <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1912,7 +1908,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1936,15 +1932,19 @@
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>法規制の遵守</t>
+          <t>セキュアスコア</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンスコントロールは、必要なコンプライアンス要件に対して緑色です</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="n"/>
+          <t>Security Center によって保護されているすべてのサブスクリプションが表示されます (サブスクリプション フィルター セットなし)</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用のベストプラクティス - 透明性</t>
+        </is>
+      </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1958,7 +1958,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1966,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1982,19 +1982,15 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>法規制の遵守</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>重大度の高い VM の脆弱性はゼロ (空) です。</t>
-        </is>
-      </c>
-      <c r="D27" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>コンプライアンスコントロールは、必要なコンプライアンス要件に対して緑色です</t>
+        </is>
+      </c>
+      <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2008,14 +2004,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2031,18 +2027,22 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>ハブは Azure ファイアウォールによって保護されています。</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="n"/>
+          <t>重大度の高い VM の脆弱性はゼロ (空) です。</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2053,14 +2053,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2081,14 +2081,10 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークはファイアウォールで保護されています</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>ハブは Azure ファイアウォールによって保護されています。</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2102,14 +2098,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2130,10 +2126,14 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>DDoS 標準が有効</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>仮想ネットワークはファイアウォールで保護されています</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2147,14 +2147,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2170,18 +2170,18 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>カバレッジ</t>
+          <t>ファイアウォールマネージャ</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションがカバーされていることを確認します (変更する価格と設定を参照)。</t>
+          <t>DDoS 標準が有効</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2210,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウド用ディフェンダー</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP アドレス</t>
+          <t>カバレッジ</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP を持つ VM は NSG によって保護される必要があります。</t>
+          <t>すべてのサブスクリプションがカバーされていることを確認します (変更する価格と設定を参照)。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2237,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2266,14 +2266,10 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP を持つ VM は、Azure Firewall Premium の背後に移動されます。</t>
-        </is>
-      </c>
-      <c r="D33" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>パブリック IP を持つ VM は NSG によって保護される必要があります。</t>
+        </is>
+      </c>
+      <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2295,7 +2291,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>パブリックIPを必要としないVMにはパブリックIPがありません(つまり、内部RDPのみ)</t>
+          <t>パブリック IP を持つ VM は、Azure Firewall Premium の背後に移動されます。</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
@@ -2337,7 +2333,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2345,7 +2341,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2361,18 +2357,22 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>パブリック IP アドレス</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="n"/>
+          <t>パブリックIPを必要としないVMにはパブリックIPがありません(つまり、内部RDPのみ)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2383,7 +2383,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2391,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2412,17 +2412,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG インバウンド セキュリティ規則に [ソース] フィールドに * (ワイルドカード) が含まれていません</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>NSG RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2441,7 +2437,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2462,7 +2458,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>NSG アウトバウンド セキュリティ ルールは、ファイアウォール経由でルーティングされないトラフィックの特定の IP アドレスへのトラフィックを制御するために使用されます。</t>
+          <t>NSG インバウンド セキュリティ規則に [ソース] フィールドに * (ワイルドカード) が含まれていません</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
@@ -2472,7 +2468,7 @@
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2491,7 +2487,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2512,7 +2508,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSG には、ソースを * (ワイルドカード) として配置していません。</t>
+          <t>NSG アウトバウンド セキュリティ ルールは、ファイアウォール経由でルーティングされないトラフィックの特定の IP アドレスへのトラフィックを制御するために使用されます。</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
@@ -2522,7 +2518,7 @@
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2541,7 +2537,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2562,13 +2558,17 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG Diagnostics が NetworkSecurityGroupEvent および NetworkSecurityGroupRuleCounter トラフィックを Sentinel LAW に送信する</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="n"/>
+          <t>NSG には、ソースを * (ワイルドカード) として配置していません。</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2587,7 +2587,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>NSG Diagnostics が NetworkSecurityGroupEvent および NetworkSecurityGroupRuleCounter トラフィックを Sentinel LAW に送信する</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2633,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2654,13 +2654,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>ゼロ トラストの場合、UDR を使用してすべてのトラフィックが Azure Firewall Premium に送信されます。</t>
+          <t>UDR RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2679,7 +2679,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2700,17 +2700,13 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>すべてのトラフィックを AzureFirewallPremium に送信しない UDR は既知であり、文書化されています。</t>
-        </is>
-      </c>
-      <c r="D42" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>ゼロ トラストの場合、UDR を使用してすべてのトラフィックが Azure Firewall Premium に送信されます。</t>
+        </is>
+      </c>
+      <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2729,7 +2725,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2745,18 +2741,22 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>お客様は、Azure ネットワークの既定値 / Azure での SDN の既定のルーティングに精通している</t>
-        </is>
-      </c>
-      <c r="D43" s="22" t="n"/>
+          <t>すべてのトラフィックを AzureFirewallPremium に送信しない UDR は既知であり、文書化されています。</t>
+        </is>
+      </c>
+      <c r="D43" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2767,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2775,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2796,17 +2796,13 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>VNet RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>お客様は、Azure ネットワークの既定値 / Azure での SDN の既定のルーティングに精通している</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2817,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2825,7 +2821,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2846,13 +2842,17 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>VNet セキュリティの推奨事項は修復され、「危険にさらされている」VNet はありません。</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="n"/>
+          <t>VNet RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2863,14 +2863,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>VNet ピアリング接続が理解され、予想されるトラフィック フローが文書化されている</t>
+          <t>VNet セキュリティの推奨事項は修復され、「危険にさらされている」VNet はありません。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2908,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2916,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>VNet サービス エンドポイントが使用中であり、従来のパブリック サービス エンドポイントは存在しません</t>
+          <t>VNet ピアリング接続が理解され、予想されるトラフィック フローが文書化されている</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2954,7 +2954,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2962,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>VNet プライベート エンドポインはオンプレミス環境からのアクセスを許可するために使用されており、従来のパブリック エンドポイントは存在しません</t>
+          <t>VNet サービス エンドポイントが使用中であり、従来のパブリック サービス エンドポイントは存在しません</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +3000,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet 監視が有効になりました</t>
+          <t>VNet プライベート エンドポインはオンプレミス環境からのアクセスを許可するために使用されており、従来のパブリック エンドポイントは存在しません</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3045,14 +3045,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes - セキュリティ センターでカバー</t>
+          <t>VNet 監視が有効になりました</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3090,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3098,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>VNet NVA(アプライアンス)のお客様は、公開されたアーキテクチャ パターンに従っています</t>
+          <t>VNet Kubernetes - セキュリティ センターでカバー</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3136,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3144,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VNet 診断設定が有効で、VMProtectionAlert を Azure Sentinel LAW に送信している</t>
+          <t>VNet NVA(アプライアンス)のお客様は、公開されたアーキテクチャ パターンに従っています</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3182,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3190,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute または VPN を使用してオンプレミス環境から Azure リソースにアクセスする</t>
+          <t>VNet 診断設定が有効で、VMProtectionAlert を Azure Sentinel LAW に送信している</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3228,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>グローバルリーチ</t>
+          <t>接続</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>お客様がグローバルリーチを使用して、他の地域で実行されているサービスにプライベートに接続している</t>
+          <t>ExpressRoute または VPN を使用してオンプレミス環境から Azure リソースにアクセスする</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/expressroute/</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3281,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>グローバルリーチ</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>お客様がグローバルリーチを使用して、他の地域で実行されているサービスにプライベートに接続している</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN のお客様は、セキュアハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよび監視しています。</t>
+          <t>VWAN RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>VWAN のお客様は、セキュアハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよび監視しています。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての外部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての内部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>AppGW すべての外部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - 外部フェーシングでは TLS/SSL が有効になっており、すべてのトラフィックを 443 にリダイレクトします (ポート 80 トラフィックなし)</t>
+          <t>AppGW すべての内部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーションゲートウェイ</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>フロントドアRBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
+          <t>AppGW - 外部フェーシングでは TLS/SSL が有効になっており、すべてのトラフィックを 443 にリダイレクトします (ポート 80 トラフィックなし)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>フロント ドアは WAF ポリシーに関連付けられています。</t>
+          <t>フロントドアRBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
+          <t>フロント ドアは WAF ポリシーに関連付けられています。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Front Door リダイレクト ポート 80 からポート 443 が設定されています (リスナー)</t>
+          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>Front Door リダイレクト ポート 80 からポート 443 が設定されています (リスナー)</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
+          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>DDOS保護</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>フルタイムの従業員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
+          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID を既存の ID システムと同期します。</t>
+          <t>フルタイムの従業員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
+          <t>クラウド ID を既存の ID システムと同期します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>インターネットに接続するサービスの安全でないレガシ プロトコルを無効にします。</t>
+          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>シングルサインオンの有効化</t>
+          <t>インターネットに接続するサービスの安全でないレガシ プロトコルを無効にします。</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミスのリソースへの最高の特権アクセスを持つアカウントを同期しないでください。</t>
+          <t>シングルサインオンの有効化</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>グローバル管理者の数を 5 人未満に制限する</t>
+          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミスのリソースへの最高の特権アクセスを持つアカウントを同期しないでください。</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
+          <t>グローバル管理者の数を 5 人未満に制限する</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>すべての重大な影響の管理者がエンタープライズディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
+          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>定期的なアクセス レビューを構成して、不要なアクセス許可を時間の経過と共に取り消す</t>
+          <t>すべての重大な影響の管理者がエンタープライズディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>重大な影響を被る管理者が、セキュリティ保護と監視を強化したワークステーションを使用するようにする</t>
+          <t>定期的なアクセス レビューを構成して、不要なアクセス許可を時間の経過と共に取り消す</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
+          <t>重大な影響を被る管理者が、セキュリティ保護と監視を強化したワークステーションを使用するようにする</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されています?] に設定されています。</t>
+          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト招待の設定が [特定の管理者ロールに割り当てられているユーザーのみ] に設定されています。</t>
+          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されています?] に設定されています。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: [無効] に設定されたフロー経由のゲストセルフサービス サインアップを有効にする</t>
+          <t>外部コラボレーション設定: ゲスト招待の設定が [特定の管理者ロールに割り当てられているユーザーのみ] に設定されています。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: コラボレーションの制限が [指定したドメインへの招待を許可する] に設定されています。</t>
+          <t>外部コラボレーション設定: [無効] に設定されたフロー経由のゲストセルフサービス サインアップを有効にする</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>アクセスレビュー: すべてのグループで有効</t>
+          <t>外部コラボレーション設定: コラボレーションの制限が [指定したドメインへの招待を許可する] に設定されています。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズアプリケーション</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>同意とアクセス許可: 確認済みの発行元からのアプリのユーザーの同意を許可する</t>
+          <t>アクセスレビュー: すべてのグループで有効</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
+          <t>同意とアクセス許可: 確認済みの発行元からのアプリのユーザーの同意を許可する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>カスタムドメイン</t>
+          <t>エンタープライズアプリケーション</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>検証済みの顧客ドメインのみが登録されます。</t>
+          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>カスタムドメイン</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>セルフサービスのパスワードリセットポリシー要件に準拠していることが確認されました。</t>
+          <t>検証済みの顧客ドメインのみが登録されます。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>ユーザーに認証情報の再確認を求めるまでの日数の設定がゼロに設定されていない</t>
+          <t>セルフサービスのパスワードリセットポリシー要件に準拠していることが確認されました。</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセットに必要なメソッドの設定数が選択されている</t>
+          <t>ユーザーに認証情報の再確認を求めるまでの日数の設定がゼロに設定されていない</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>「ユーザーがアプリケーションを登録できる」を無効にする</t>
+          <t>パスワードのリセットに必要なメソッドの設定数が選択されている</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
+          <t>「ユーザーがアプリケーションを登録できる」を無効にする</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>「LinkedInアカウント接続」を無効にする</t>
+          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>有効にし、Sentinelでログ分析ワークスペースに送信する</t>
+          <t>「LinkedInアカウント接続」を無効にする</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM が有効</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>特権 ID 管理が有効</t>
+          <t>有効にし、Sentinelでログ分析ワークスペースに送信する</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮(常設アクセスの削減)</t>
+          <t>特権 ID 管理が有効</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>PIM が有効</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセスポリシー/アクセス制御の構成</t>
+          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮(常設アクセスの削減)</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>条件: 制限された場所</t>
+          <t>条件付きアクセスポリシー/アクセス制御の構成</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
+          <t>条件: 制限された場所</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: 管理者に MFA を要求する</t>
+          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: Azure 管理に MFA を要求する</t>
+          <t>アクセス制御: 管理者に MFA を要求する</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: ブロック レガシー プロトコル</t>
+          <t>アクセス制御: Azure 管理に MFA を要求する</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
+          <t>アクセス制御: ブロック レガシー プロトコル</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,22 +5496,18 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>ゲスト ユーザー</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>ゲストユーザーアカウントを追跡するポリシー(つまり、使用状況/削除/無効化)はありますか?</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="inlineStr">
-        <is>
-          <t>お客様が文書化したポリシー</t>
-        </is>
-      </c>
+          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5522,7 +5518,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5530,7 +5526,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5546,18 +5542,22 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティセキュアスコア</t>
+          <t>ゲスト ユーザー</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>業界のベストプラクティスに基づくIDセキュアスコアの実装</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="n"/>
+          <t>ゲストユーザーアカウントを追跡するポリシー(つまり、使用状況/削除/無効化)はありますか?</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="inlineStr">
+        <is>
+          <t>お客様が文書化したポリシー</t>
+        </is>
+      </c>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>ガラスのアカウントを破る</t>
+          <t>アイデンティティセキュアスコア</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>少なくとも 2 つの非常口アカウントが作成され、その使用に関するポリシーが存在します。</t>
+          <t>業界のベストプラクティスに基づくIDセキュアスコアの実装</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>ガラスのアカウントを破る</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を活用して VM アクセスを制御する</t>
+          <t>少なくとも 2 つの非常口アカウントが作成され、その使用に関するポリシーが存在します。</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを軽減</t>
+          <t>Azure Policy を活用して VM アクセスを制御する</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことにより、VMS を展開するための特権アクセスをセキュリティで保護</t>
+          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを軽減</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
+          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことにより、VMS を展開するための特権アクセスをセキュリティで保護</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>災害復旧ソリューションの展開とテスト</t>
+          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>可用性セット</t>
+          <t>災害復旧ソリューションの展開とテスト</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>アベイラビリティーゾーン</t>
+          <t>可用性セット</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>地域のフォールトトレランス</t>
+          <t>アベイラビリティーゾーン</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>マルウェアからの保護</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションのインストール</t>
+          <t>地域のフォールトトレランス</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションをセキュリティセンターと統合する</t>
+          <t>マルウェア対策ソリューションのインストール</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>マルウェアからの保護</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションによる更新管理を使用して VM を最新の状態に保つ</t>
+          <t>マルウェア対策ソリューションをセキュリティセンターと統合する</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>展開する Windows イメージに最新のレベルの更新プログラムが適用されていることを確認する</t>
+          <t>Azure オートメーションによる更新管理を使用して VM を最新の状態に保つ</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
+          <t>展開する Windows イメージに最新のレベルの更新プログラムが適用されていることを確認する</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>VM の更新の管理</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>VM で暗号化を有効にする</t>
+          <t>Microsoft Defender for Cloud を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>暗号化のためのセキュリティ層を追加するためのキー暗号化キー (KEK) の追加</t>
+          <t>VM で暗号化を有効にする</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>ロールバックの目的で暗号化の前にディスクのスナップショットを作成する</t>
+          <t>暗号化のためのセキュリティ層を追加するためのキー暗号化キー (KEK) の追加</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>中央ネットワーク グループのみがネットワーク リソースに対するアクセス許可を持っていることを確認する</t>
+          <t>ロールバックの目的で暗号化の前にディスクのスナップショットを作成する</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>「ANY」ソースIPアデスからのアクセスを許可する公開されたVMを識別して修復する</t>
+          <t>中央ネットワーク グループのみがネットワーク リソースに対するアクセス許可を持っていることを確認する</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>5173676a-e466-491e-a835-ad942223E138</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
+          <t>「ANY」ソースIPアデスからのアクセスを許可する公開されたVMを識別して修復する</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>相互アクセスを削除し、RDP 用のジャンプ サーバーを実装する</t>
+          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたは高速ルートを実装する</t>
+          <t>相互アクセスを削除し、RDP 用のジャンプ サーバーを実装する</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティの強化とフットプリントの削減を実現</t>
+          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたは高速ルートを実装する</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM セキュリティ チェック</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>すべてのテナントで、少なくとも1つのLog AnalyticsワークスペースでSentinelが有効になっている</t>
+          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティの強化とフットプリントの削減を実現</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>お客様がSentinelアーキテクチャを理解している</t>
+          <t>すべてのテナントで、少なくとも1つのLog AnalyticsワークスペースでSentinelが有効になっている</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>お客様は、複数のSentinelインスタンスにわたるインシデントを監視する方法を熟知しています。</t>
+          <t>お客様がSentinelアーキテクチャを理解している</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>24時間以上オープンするインシデントはありません</t>
+          <t>お客様は、複数のSentinelインスタンスにわたるインシデントを監視する方法を熟知しています。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>ニュースとガイド</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>お客様には[ニュースとガイド]タブが表示されている。</t>
+          <t>24時間以上オープンするインシデントはありません</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>UEBA</t>
+          <t>ニュースとガイド</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>お客様には[ニュースとガイド]タブが表示されている。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>UEBA</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Received Log Received' が今日表示される</t>
+          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>Azure Active Directory in configured and 'Last Received Log Received' が今日表示される</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティが構成され、"前回受信したログ" が今日表示されます</t>
+          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender が構成され、"最後に受信したログ" が今日表示されます</t>
+          <t>Azure アクティビティが構成され、"前回受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7077,7 +7077,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>Azure Defender が構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7122,7 +7122,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示されます。</t>
+          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7167,7 +7167,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベントは AMA で構成されており、"最後に受信したログ" は今日表示されます。</t>
+          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示されます。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7212,7 +7212,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>セキュリティ イベントは AMA で構成されており、"最後に受信したログ" は今日表示されます。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>AWS のコネクタ</t>
+          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7347,7 +7347,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>GCP用コネクタ</t>
+          <t>AWS のコネクタ</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>分析ルール</t>
+          <t>データコネクタ</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>お客様がアナリティクスルールを有効にし、インシデントを設定しました</t>
+          <t>GCP用コネクタ</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>設定</t>
+          <t>分析ルール</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>お客様は日次上限を有効にしていません</t>
+          <t>お客様がアナリティクスルールを有効にし、インシデントを設定しました</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,23 +7493,23 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>構成</t>
+          <t>設定</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium がデプロイされました</t>
+          <t>お客様は日次上限を有効にしていません</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール経由で有効なクワッド ゼロ/強制チューニング</t>
+          <t>Azure Firewall Premium がデプロイされました</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://docs.microsoft.com/azure/firewall/overview</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>構成</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>許可されたユーザーのみを使用可能にするように設定された RBAC</t>
+          <t>Azure ファイアウォール経由で有効なクワッド ゼロ/強制チューニング</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>診断が有効になり、メトリックが Log Analytics ワークスペースに送信される</t>
+          <t>許可されたユーザーのみを使用可能にするように設定された RBAC</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>ハブと仮想ネットワークは、ファイアウォールプレミアムを介して保護または接続されています</t>
+          <t>診断が有効になり、メトリックが Log Analytics ワークスペースに送信される</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
+          <t>ハブと仮想ネットワークは、ファイアウォールプレミアムを介して保護または接続されています</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: 親ポリシーが構成されている</t>
+          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ルール コレクションが定義されている</t>
+          <t>ポリシー: 親ポリシーが構成されている</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: DNAT ポリシーが定義されている</t>
+          <t>ポリシー: ルール コレクションが定義されている</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ネットワークルールが定義されている</t>
+          <t>ポリシー: DNAT ポリシーが定義されている</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アプリケーション ルールが定義されている</t>
+          <t>ポリシー: ネットワークルールが定義されている</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS:機能が理解され、適用されているか、または適用されていないか</t>
+          <t>ポリシー: アプリケーション ルールが定義されている</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス: アラートと拒否に設定</t>
+          <t>DNS:機能が理解され、適用されているか、または適用されていないか</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス:許可リスト(使用されているかどうかを正当化する - つまりパフォーマンス)</t>
+          <t>脅威インテリジェンス: アラートと拒否に設定</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8112,7 +8112,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS が有効</t>
+          <t>脅威インテリジェンス:許可リスト(使用されているかどうかを正当化する - つまりパフォーマンス)</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS が有効</t>
+          <t>TLS が有効</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>SNAT: 設定済み</t>
+          <t>IDPS が有効</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>ファイアウォールマネージャ</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリックIPに対して有効</t>
+          <t>SNAT: 設定済み</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8301,109 +8301,315 @@
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Azure Firewall</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>DDOS保護</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>ファイアウォールのパブリックIPに対して有効</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10461,8 +10667,14 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10477,7 +10689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
@@ -10742,6 +10954,13 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Application Deployment</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/spreadsheet/security_checklist.ja.xlsx
+++ b/spreadsheet/security_checklist.ja.xlsx
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/faq-data-collection-agents</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>ディフェンダーサービスはすべて有効になっています</t>
+          <t>Defender for Cloud の強化されたセキュリティ機能はすべて有効になっています</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -2813,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet プライベート エンドポインはオンプレミス環境からのアクセスを許可するために使用されており、従来のパブリック エンドポイントは存在しません</t>
+          <t>VNet プライベート エンドポイントはオンプレミス環境からのアクセスを許可するために使用されており、従来のパブリック エンドポイントは存在しません</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes - セキュリティ センターでカバー</t>
+          <t>Azure Kubernetes Service (AKS) のネットワーク ポリシーを使用したポッド間のトラフィックのセキュリティ保護</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>グローバルリーチ</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>お客様がグローバルリーチを使用して、他の地域で実行されているサービスにプライベートに接続している</t>
+          <t>VWAN RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>VWAN のお客様は、セキュアハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよび監視しています。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>アプリケーションゲートウェイ</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>VWAN のお客様は、セキュアハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよび監視しています。</t>
+          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>AppGW すべての外部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての外部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>AppGW すべての内部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての内部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>AppGW - 外部フェーシングでは TLS/SSL が有効になっており、すべてのトラフィックを 443 にリダイレクトします (ポート 80 トラフィックなし)</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>AppGW - 外部フェーシングでは TLS/SSL が有効になっており、すべてのトラフィックを 443 にリダイレクトします (ポート 80 トラフィックなし)</t>
+          <t>フロントドアRBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>フロントドアRBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
+          <t>フロント ドアは WAF ポリシーに関連付けられています。</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>フロント ドアは WAF ポリシーに関連付けられています。</t>
+          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
+          <t>Front Door リダイレクト ポート 80 からポート 443 が設定されています (リスナー)</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door リダイレクト ポート 80 からポート 443 が設定されています (リスナー)</t>
+          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>DDOS保護</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
+          <t>フルタイムの従業員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>フルタイムの従業員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
+          <t>クラウド ID を既存の ID システムと同期します。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID を既存の ID システムと同期します。</t>
+          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
+          <t>インターネットに接続するサービスの安全でないレガシ プロトコルを無効にします。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>インターネットに接続するサービスの安全でないレガシ プロトコルを無効にします。</t>
+          <t>シングルサインオンの有効化</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>シングルサインオンの有効化</t>
+          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミスのリソースへの最高の特権アクセスを持つアカウントを同期しないでください。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミスのリソースへの最高の特権アクセスを持つアカウントを同期しないでください。</t>
+          <t>グローバル管理者の数を 5 人未満に制限する</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>グローバル管理者の数を 5 人未満に制限する</t>
+          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
+          <t>すべての重大な影響の管理者がエンタープライズディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>すべての重大な影響の管理者がエンタープライズディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
+          <t>定期的なアクセス レビューを構成して、不要なアクセス許可を時間の経過と共に取り消す</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>定期的なアクセス レビューを構成して、不要なアクセス許可を時間の経過と共に取り消す</t>
+          <t>重大な影響を被る管理者が、セキュリティ保護と監視を強化したワークステーションを使用するようにする</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>重大な影響を被る管理者が、セキュリティ保護と監視を強化したワークステーションを使用するようにする</t>
+          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
+          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されています?] に設定されています。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されています?] に設定されています。</t>
+          <t>外部コラボレーション設定: ゲスト招待の設定が [特定の管理者ロールに割り当てられているユーザーのみ] に設定されています。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト招待の設定が [特定の管理者ロールに割り当てられているユーザーのみ] に設定されています。</t>
+          <t>外部コラボレーション設定: [無効] に設定されたフロー経由のゲストセルフサービス サインアップを有効にする</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: [無効] に設定されたフロー経由のゲストセルフサービス サインアップを有効にする</t>
+          <t>外部コラボレーション設定: コラボレーションの制限が [指定したドメインへの招待を許可する] に設定されています。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: コラボレーションの制限が [指定したドメインへの招待を許可する] に設定されています。</t>
+          <t>アクセスレビュー: すべてのグループで有効</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>エンタープライズアプリケーション</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>アクセスレビュー: すべてのグループで有効</t>
+          <t>同意とアクセス許可: 確認済みの発行元からのアプリのユーザーの同意を許可する</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>同意とアクセス許可: 確認済みの発行元からのアプリのユーザーの同意を許可する</t>
+          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズアプリケーション</t>
+          <t>カスタムドメイン</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
+          <t>検証済みの顧客ドメインのみが登録されます。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>カスタムドメイン</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>検証済みの顧客ドメインのみが登録されます。</t>
+          <t>セルフサービスのパスワードリセットポリシー要件に準拠していることが確認されました。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>セルフサービスのパスワードリセットポリシー要件に準拠していることが確認されました。</t>
+          <t>ユーザーに認証情報の再確認を求めるまでの日数の設定がゼロに設定されていない</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>ユーザーに認証情報の再確認を求めるまでの日数の設定がゼロに設定されていない</t>
+          <t>パスワードのリセットに必要なメソッドの設定数が選択されている</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセットに必要なメソッドの設定数が選択されている</t>
+          <t>「ユーザーがアプリケーションを登録できる」を無効にする</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>「ユーザーがアプリケーションを登録できる」を無効にする</t>
+          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
+          <t>「LinkedInアカウント接続」を無効にする</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>「LinkedInアカウント接続」を無効にする</t>
+          <t>有効にし、Sentinelでログ分析ワークスペースに送信する</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>PIM が有効</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>有効にし、Sentinelでログ分析ワークスペースに送信する</t>
+          <t>特権 ID 管理が有効</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>特権 ID 管理が有効</t>
+          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮(常設アクセスの削減)</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>PIM が有効</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮(常設アクセスの削減)</t>
+          <t>条件付きアクセスポリシー/アクセス制御の構成</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセスポリシー/アクセス制御の構成</t>
+          <t>条件: 制限された場所</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>条件: 制限された場所</t>
+          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
+          <t>アクセス制御: 管理者に MFA を要求する</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: 管理者に MFA を要求する</t>
+          <t>アクセス制御: Azure 管理に MFA を要求する</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: Azure 管理に MFA を要求する</t>
+          <t>アクセス制御: ブロック レガシー プロトコル</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: ブロック レガシー プロトコル</t>
+          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,18 +5496,22 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>ゲスト ユーザー</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="n"/>
+          <t>ゲストユーザーアカウントを追跡するポリシー(つまり、使用状況/削除/無効化)はありますか?</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="inlineStr">
+        <is>
+          <t>お客様が文書化したポリシー</t>
+        </is>
+      </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5518,7 +5522,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5526,7 +5530,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5542,22 +5546,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>ゲスト ユーザー</t>
+          <t>アイデンティティセキュアスコア</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>ゲストユーザーアカウントを追跡するポリシー(つまり、使用状況/削除/無効化)はありますか?</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="inlineStr">
-        <is>
-          <t>お客様が文書化したポリシー</t>
-        </is>
-      </c>
+          <t>業界のベストプラクティスに基づくIDセキュアスコアの実装</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティセキュアスコア</t>
+          <t>ガラスのアカウントを破る</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>業界のベストプラクティスに基づくIDセキュアスコアの実装</t>
+          <t>少なくとも 2 つの非常口アカウントが作成され、その使用に関するポリシーが存在します。</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>VM セキュリティ チェック</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>ガラスのアカウントを破る</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>少なくとも 2 つの非常口アカウントが作成され、その使用に関するポリシーが存在します。</t>
+          <t>Azure Policy を活用して VM アクセスを制御する</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を活用して VM アクセスを制御する</t>
+          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを軽減</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを軽減</t>
+          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことにより、VMS を展開するための特権アクセスをセキュリティで保護</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことにより、VMS を展開するための特権アクセスをセキュリティで保護</t>
+          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
+          <t>災害復旧ソリューションの展開とテスト</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>災害復旧ソリューションの展開とテスト</t>
+          <t>可用性セット</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>可用性セット</t>
+          <t>アベイラビリティーゾーン</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>アベイラビリティーゾーン</t>
+          <t>地域のフォールトトレランス</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>マルウェアからの保護</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>地域のフォールトトレランス</t>
+          <t>マルウェア対策ソリューションのインストール</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションのインストール</t>
+          <t>マルウェア対策ソリューションをセキュリティセンターと統合する</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>マルウェアからの保護</t>
+          <t>VM の更新の管理</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションをセキュリティセンターと統合する</t>
+          <t>Azure オートメーションによる更新管理を使用して VM を最新の状態に保つ</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションによる更新管理を使用して VM を最新の状態に保つ</t>
+          <t>展開する Windows イメージに最新のレベルの更新プログラムが適用されていることを確認する</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>展開する Windows イメージに最新のレベルの更新プログラムが適用されていることを確認する</t>
+          <t>Microsoft Defender for Cloud を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
+          <t>VM で暗号化を有効にする</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>VM で暗号化を有効にする</t>
+          <t>暗号化のためのセキュリティ層を追加するためのキー暗号化キー (KEK) の追加</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>暗号化のためのセキュリティ層を追加するためのキー暗号化キー (KEK) の追加</t>
+          <t>ロールバックの目的で暗号化の前にディスクのスナップショットを作成する</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>ロールバックの目的で暗号化の前にディスクのスナップショットを作成する</t>
+          <t>中央ネットワーク グループのみがネットワーク リソースに対するアクセス許可を持っていることを確認する</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>5173676a-e466-491e-a835-ad942223E138</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>中央ネットワーク グループのみがネットワーク リソースに対するアクセス許可を持っていることを確認する</t>
+          <t>「ANY」ソースIPアデスからのアクセスを許可する公開されたVMを識別して修復する</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>「ANY」ソースIPアデスからのアクセスを許可する公開されたVMを識別して修復する</t>
+          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
+          <t>インターネット アクセスを削除し、RDP 用のジャンプ サーバーを実装する</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>相互アクセスを削除し、RDP 用のジャンプ サーバーを実装する</t>
+          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたは高速ルートを実装する</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたは高速ルートを実装する</t>
+          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティの強化とフットプリントの削減を実現</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティの強化とフットプリントの削減を実現</t>
+          <t>すべてのテナントで、少なくとも1つのLog AnalyticsワークスペースでSentinelが有効になっている</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>すべてのテナントで、少なくとも1つのLog AnalyticsワークスペースでSentinelが有効になっている</t>
+          <t>お客様がSentinelアーキテクチャを理解している</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>お客様がSentinelアーキテクチャを理解している</t>
+          <t>お客様は、複数のSentinelインスタンスにわたるインシデントを監視する方法を熟知しています。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>お客様は、複数のSentinelインスタンスにわたるインシデントを監視する方法を熟知しています。</t>
+          <t>24時間以上オープンするインシデントはありません</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>ニュースとガイド</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>24時間以上オープンするインシデントはありません</t>
+          <t>お客様には[ニュースとガイド]タブが表示されている。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>ニュースとガイド</t>
+          <t>UEBA</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>お客様には[ニュースとガイド]タブが表示されている。</t>
+          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>UEBA</t>
+          <t>データコネクタ</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Azure Active Directory in configured and 'Last Received Log Received' が今日表示される</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Received Log Received' が今日表示される</t>
+          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>Azure アクティビティが構成され、"前回受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティが構成され、"前回受信したログ" が今日表示されます</t>
+          <t>Microsoft Defender for Cloud が構成され、「最後に受信したログ」が本日表示される</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender が構成され、"最後に受信したログ" が今日表示されます</t>
+          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示されます。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示されます。</t>
+          <t>セキュリティ イベントは AMA で構成されており、"最後に受信したログ" は今日表示されます。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベントは AMA で構成されており、"最後に受信したログ" は今日表示されます。</t>
+          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>AWS のコネクタ</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>AWS のコネクタ</t>
+          <t>GCP用コネクタ</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>分析ルール</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>GCP用コネクタ</t>
+          <t>お客様がアナリティクスルールを有効にし、インシデントを設定しました</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>分析ルール</t>
+          <t>設定</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>お客様がアナリティクスルールを有効にし、インシデントを設定しました</t>
+          <t>お客様は日次上限を有効にしていません</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,23 +7493,23 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>設定</t>
+          <t>構成</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>お客様は日次上限を有効にしていません</t>
+          <t>Azure Firewall Premium がデプロイされました</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium がデプロイされました</t>
+          <t>Azure ファイアウォール経由で有効なクワッド ゼロ/強制チューニング</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>構成</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール経由で有効なクワッド ゼロ/強制チューニング</t>
+          <t>許可されたユーザーのみを使用可能にするように設定された RBAC</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>許可されたユーザーのみを使用可能にするように設定された RBAC</t>
+          <t>診断が有効になり、メトリックが Log Analytics ワークスペースに送信される</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>ファイアウォールマネージャ</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>診断が有効になり、メトリックが Log Analytics ワークスペースに送信される</t>
+          <t>ハブと仮想ネットワークは、ファイアウォールプレミアムを介して保護または接続されています</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>ハブと仮想ネットワークは、ファイアウォールプレミアムを介して保護または接続されています</t>
+          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
+          <t>ポリシー: 親ポリシーが構成されている</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: 親ポリシーが構成されている</t>
+          <t>ポリシー: ルール コレクションが定義されている</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ルール コレクションが定義されている</t>
+          <t>ポリシー: DNAT ポリシーが定義されている</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: DNAT ポリシーが定義されている</t>
+          <t>ポリシー: ネットワークルールが定義されている</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ネットワークルールが定義されている</t>
+          <t>ポリシー: アプリケーション ルールが定義されている</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アプリケーション ルールが定義されている</t>
+          <t>DNS:機能が理解され、適用されているか、または適用されていないか</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>DNS:機能が理解され、適用されているか、または適用されていないか</t>
+          <t>脅威インテリジェンス: アラートと拒否に設定</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス: アラートと拒否に設定</t>
+          <t>脅威インテリジェンス:許可リスト(使用されているかどうかを正当化する - つまりパフォーマンス)</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス:許可リスト(使用されているかどうかを正当化する - つまりパフォーマンス)</t>
+          <t>TLS が有効</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>TLS が有効</t>
+          <t>IDPS が有効</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>IDPS が有効</t>
+          <t>SNAT: 設定済み</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>DDOS保護</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>SNAT: 設定済み</t>
+          <t>ファイアウォールのパブリックIPに対して有効</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8303,41 +8303,41 @@
     <row r="165" ht="16.5" customHeight="1" s="13">
       <c r="A165" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリックIPに対して有効</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -10667,14 +10667,26 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/security_checklist.ja.xlsx
+++ b/spreadsheet/security_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure セキュリティ レビュー チェックリスト</t>
+          <t>Azure Security Review Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,34 +1095,34 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ センター/ディフェンダーは、すべてのサブスクリプションで有効にします。</t>
+          <t>許可されたユーザーのみを有効にするように設定された RBAC</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>構成</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ センター/ディフェンダーがすべてのログ分析ワークスペースで有効</t>
+          <t>Azure Firewall Premium がデプロイされました</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1162,13 +1162,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,34 +1187,34 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>構成</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>データ収集は「共通」に設定</t>
+          <t>クワッド ゼロ/フォース チューニングが Azure ファイアウォール経由で有効になっている</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,34 +1233,34 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>DDOS保護</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Defender for Cloud の強化されたセキュリティ機能はすべて有効になっています</t>
+          <t>ファイアウォールのパブリック IP に対して有効</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>会社のポリシーに従って自動プロビジョニングを有効にする (ポリシーが存在する必要があります)</t>
+          <t>診断が有効で、Log Analytics ワークスペースにメトリックが送信される</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1300,13 +1300,13 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,34 +1325,34 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>会社のポリシーに従って有効な電子メール通知 (ポリシーが存在する必要があります)</t>
+          <t>ハブと仮想ネットワークは、ファイアウォール プレミアムを介して保護または接続されています</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,34 +1371,34 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>統合を有効にするオプションが選択されている</t>
+          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,34 +1417,34 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>CI/CD 統合が構成されている</t>
+          <t>ポリシー: 親ポリシーが構成されている</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7bae4-4th-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>連続エクスポート「イベントハブ」は、サードパーティのSIEMを使用している場合に有効になります</t>
+          <t>ポリシー: ルール コレクションが定義されています</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1484,13 +1484,13 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,34 +1509,34 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>継続的なエクスポート 'Log Analytics Workspace' は、Azure Sentinel を使用していない場合に有効になります。</t>
+          <t>ポリシー: DNAT ポリシーが定義されています</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>AWS で有効になっているクラウドコネクタ</t>
+          <t>ポリシー: ネットワーク ルールが定義されています</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1576,13 +1576,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>GCP で有効なクラウドコネクタ</t>
+          <t>ポリシー: アプリケーション ルールが定義されています</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1622,13 +1622,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,34 +1647,34 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを使用する場合は、Microsoft Defender for Cloud Apps との統合を検討して、アプリケーションのアクセスをリアルタイムで監視し、高度なセキュリティ制御を適用することを検討してください。</t>
+          <t>DNS: 機能を理解し、適用した、または適用しない</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,34 +1693,34 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>推奨 事項</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>すべての推奨事項は、必要でない場合は修復または無効にされました。</t>
+          <t>脅威インテリジェンス: Set to Alert &amp; Deny</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>推奨 事項</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>セキュリティスコア&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>マイクロソフトのすべてのお客様の最小目標は 70% です。</t>
-        </is>
-      </c>
+          <t>脅威インテリジェンス:許可リスト(それらが使用されているかどうかを正当化する-つまりパフォーマンス)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1764,13 +1760,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,34 +1785,34 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>セキュリティアラート</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ警告には、過去 24 時間以内に生成されたもののみが含まれます (古いセキュリティ警告を修復または無効にする)</t>
+          <t>TLS が有効</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,34 +1831,34 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>ブック</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>継続的エクスポートが有効になっている場合、カスタム セキュリティ ダッシュボードにパブリッシュされた既定のブック</t>
+          <t>IDPS が有効</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,34 +1877,34 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>コミュニティ</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>お客様は「コミュニティ」ページの価値を認識しており、レビュー用に定期的なリズムを設定しています。</t>
+          <t>SNAT: 構成済み</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>セキュアスコア</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Security Center によって保護されているすべてのサブスクリプションが表示されます (サブスクリプション フィルター セットなし)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用のベストプラクティス - 透明性</t>
-        </is>
-      </c>
+          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1952,13 +1944,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>法規制の遵守</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンスコントロールは、必要なコンプライアンス要件に対して緑色です</t>
+          <t>AppGW すべての外部向け Web サービスは、WAF が有効になっているアプリケーション ゲートウェイを利用しています</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -1998,20 +1990,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>重大度の高い VM の脆弱性はゼロ (空) です。</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>AppGW すべての内部向け Web サービスは、WAF が有効になっているアプリケーション ゲートウェイを利用しています</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2047,20 +2035,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,41 +2059,41 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>ハブは Azure ファイアウォールによって保護されています。</t>
+          <t>AppGW - 外部向けで TLS/SSL が有効になっており、すべてのトラフィックを 443 (ポート 80 トラフィックなし) にリダイレクトします。</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,45 +2104,41 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>接続</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークはファイアウォールで保護されています</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>ExpressRoute または VPN を使用してオンプレミス環境から Azure リソースにアクセスする</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,41 +2149,41 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>DDOS保護</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>DDoS 標準が有効</t>
+          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>カバレッジ</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションがカバーされていることを確認します (変更する価格と設定を参照)。</t>
+          <t>フロント ドア RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2231,13 +2215,13 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2261,12 +2245,12 @@
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP アドレス</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP を持つ VM は NSG によって保護される必要があります。</t>
+          <t>フロント ドアが WAF ポリシーに関連付けられている</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2277,13 +2261,13 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2307,19 +2291,15 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP アドレス</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP を持つ VM は、Azure Firewall Premium の背後に移動されます。</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2327,13 +2307,13 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2357,19 +2337,15 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP アドレス</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>パブリックIPを必要としないVMにはパブリックIPがありません(つまり、内部RDPのみ)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>Front Door リダイレクト ポート 80 からポート 443 が構成されている (リスナー)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2377,13 +2353,13 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2407,29 +2383,29 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>Front Door 診断ログが ApplicationGatewayAccessLog と ApplicationGateway FirewallLog を Sentinel LAW に送信する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2453,27 +2429,23 @@
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>NSG インバウンド セキュリティ規則に [ソース] フィールドに * (ワイルドカード) が含まれていません</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>NSG RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2503,27 +2475,27 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSG アウトバウンド セキュリティ ルールは、ファイアウォール経由でルーティングされないトラフィックの特定の IP アドレスへのトラフィックを制御するために使用されます。</t>
+          <t>NSG 受信セキュリティ規則の [ソース] フィールドに * (ワイルドカード) が含まれていない</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2553,27 +2525,27 @@
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG には、ソースを * (ワイルドカード) として配置していません。</t>
+          <t>NSG 送信セキュリティ規則は、ファイアウォール経由でルーティングされないトラフィックの特定の IP アドレスへのトラフィックを制御するために使用されます。</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2603,29 +2575,33 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>NSG Diagnostics が NetworkSecurityGroupEvent および NetworkSecurityGroupRuleCounter トラフィックを Sentinel LAW に送信する</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>NSG には、* (ワイルドカード) としてのソースがありません。</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2649,12 +2625,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>NSG 診断は、NetworkSecurityGroupEvent および NetworkSecurityGroupRuleCounter トラフィックをSentinel LAW に送信します。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2665,13 +2641,13 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2695,12 +2671,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>グローバル IP アドレス</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>ゼロ トラストの場合、UDR を使用してすべてのトラフィックが Azure Firewall Premium に送信されます。</t>
+          <t>パブリック IP を持つ VM は NSG によって保護される必要がある</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2711,13 +2687,13 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2741,33 +2717,33 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>グローバル IP アドレス</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>すべてのトラフィックを AzureFirewallPremium に送信しない UDR は既知であり、文書化されています。</t>
+          <t>パブリック IP を持つ VM は、Azure ファイアウォール プレミアムの背後に移動されます。</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2791,15 +2767,19 @@
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>グローバル IP アドレス</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>お客様は、Azure ネットワークの既定値 / Azure での SDN の既定のルーティングに精通している</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>パブリック IP を必要としない VM にはパブリック IP がありません (つまり、内部 RDP のみ)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2807,13 +2787,13 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2837,19 +2817,15 @@
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>VNet RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>UDR RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2857,20 +2833,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2886,12 +2862,12 @@
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>VNet セキュリティの推奨事項は修復され、「危険にさらされている」VNet はありません。</t>
+          <t>ゼロ トラストの場合、UDR を使用してすべてのトラフィックを Azure ファイアウォール プレミアムに送信します。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2902,13 +2878,13 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2932,29 +2908,33 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>VNet ピアリング接続が理解され、予想されるトラフィック フローが文書化されている</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>すべてのトラフィックを AzureFirewallPremium に送信しない UDR は既知であり、文書化されています。</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>VNet サービス エンドポイントが使用中であり、従来のパブリック サービス エンドポイントは存在しません</t>
+          <t>お客様は、Azure での Azure ネットワークの既定値/SDN の既定のルーティングに精通している</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2994,20 +2974,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,31 +3008,35 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet プライベート エンドポイントはオンプレミス環境からのアクセスを許可するために使用されており、従来のパブリック エンドポイントは存在しません</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>VNet RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet 監視が有効になりました</t>
+          <t>VNet のセキュリティに関する推奨事項が修復され、"リスクのある" VNet がない</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3084,13 +3068,13 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Azure Kubernetes Service (AKS) のネットワーク ポリシーを使用したポッド間のトラフィックのセキュリティ保護</t>
+          <t>VNet ピアリング接続が理解され、予想されるトラフィック フローが文書化されている</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3130,13 +3114,13 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VNet NVA(アプライアンス)のお客様は、公開されたアーキテクチャ パターンに従っています</t>
+          <t>VNet サービス エンドポイントが使用中であり、従来のパブリック サービス エンドポイントが存在しない</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3176,13 +3160,13 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>VNet 診断設定が有効で、VMProtectionAlert を Azure Sentinel LAW に送信している</t>
+          <t>VNet プライベート エンドポイントはオンプレミス環境からのアクセスを許可するために使用中であり、レガシ パブリック エンドポイントは存在しません</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3222,20 +3206,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3235,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute または VPN を使用してオンプレミス環境から Azure リソースにアクセスする</t>
+          <t>VNet 監視が有効</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3267,13 +3251,13 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3281,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>Azure Kubernetes サービス (AKS) のネットワーク ポリシーを使用してポッド間のトラフィックをセキュリティで保護する</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3313,20 +3297,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3342,12 +3326,12 @@
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN のお客様は、セキュアハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよび監視しています。</t>
+          <t>VNet NVA (アプライアンス) のお客様は、公開されたアーキテクチャ パターンに従います</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3358,20 +3342,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3371,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>VNet 診断設定が有効になっており、VMProtectionAlerts が Azure Sentinel LAW に送信されている</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3403,20 +3387,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3432,12 +3416,12 @@
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての外部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>VWAN RBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3448,20 +3432,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3477,12 +3461,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての内部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>VWAN のお客様は、セキュア ハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよびモニタしています。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3493,20 +3477,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - 外部フェーシングでは TLS/SSL が有効になっており、すべてのトラフィックを 443 にリダイレクトします (ポート 80 トラフィックなし)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>重大度の高い VM の脆弱性はゼロ (空) です</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -3538,20 +3526,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,41 +3550,41 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>コミュニティ</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>フロントドアRBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
+          <t>お客様は「コミュニティ」ページの価値を認識しており、定期的にレビューするように設定されています</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>カバレッジ</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>フロント ドアは WAF ポリシーに関連付けられています。</t>
+          <t>すべてのサブスクリプションがカバーされていることを確認します (変更する価格と設定を参照)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3628,20 +3616,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,34 +3640,34 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
+          <t>ハブは Azure ファイアウォールによって保護されています</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,34 +3686,38 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Front Door リダイレクト ポート 80 からポート 443 が設定されています (リスナー)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>仮想ネットワークはファイアウォールによって保護されています</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,34 +3736,34 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>DDoS 標準が有効</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
+          <t>セキュリティ センター/Defender がすべてのサブスクリプションで有効になっている</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3811,20 +3803,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>フルタイムの従業員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
+          <t>セキュリティ センター/ディフェンダーがすべての Log Analytics ワークスペースで有効になっている</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3856,13 +3848,13 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,34 +3873,34 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID を既存の ID システムと同期します。</t>
+          <t>「共通」に設定されたデータ収集</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
+          <t>クラウドの強化されたセキュリティ機能に対する Defender がすべて有効になっている</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3948,13 +3940,13 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,34 +3965,34 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>インターネットに接続するサービスの安全でないレガシ プロトコルを無効にします。</t>
+          <t>会社のポリシーに従って有効になっている自動プロビジョニング (ポリシーが存在する必要があります)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,34 +4011,34 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>シングルサインオンの有効化</t>
+          <t>会社のポリシーに従って有効になっている電子メール通知 (ポリシーが存在する必要があります)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,34 +4057,34 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミスのリソースへの最高の特権アクセスを持つアカウントを同期しないでください。</t>
+          <t>統合を有効にするオプションが選択されています</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,34 +4103,34 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>グローバル管理者の数を 5 人未満に制限する</t>
+          <t>CI/CD 統合が構成されている</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
+          <t>連続エクスポート "イベント ハブ" は、サードパーティの SIEM を使用している場合に有効になります</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4178,13 +4170,13 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,34 +4195,34 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>すべての重大な影響の管理者がエンタープライズディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
+          <t>継続的エクスポートの "Log Analytics ワークスペース" は、Azure Sentinel を使用していない場合に有効になります。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>定期的なアクセス レビューを構成して、不要なアクセス許可を時間の経過と共に取り消す</t>
+          <t>AWS で有効になっているクラウドコネクタ</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4270,13 +4262,13 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,34 +4287,34 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>重大な影響を被る管理者が、セキュリティ保護と監視を強化したワークステーションを使用するようにする</t>
+          <t>GCP で有効になっているクラウド コネクタ</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,34 +4333,34 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
+          <t>Azure AD アプリケーション プロキシを使用している場合は、Microsoft Defender for Cloud Apps と統合して、アプリケーションのアクセスをリアルタイムで監視し、高度なセキュリティ制御を適用することを検討してください。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,34 +4379,34 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>推奨 事項</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されています?] に設定されています。</t>
+          <t>すべての推奨事項は修復されるか、不要な場合は無効になります。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>推奨 事項</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト招待の設定が [特定の管理者ロールに割り当てられているユーザーのみ] に設定されています。</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>セキュリティスコア&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>すべてのお客様のマイクロソフトの最小目標は 70% です</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -4454,13 +4450,13 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>法規制の遵守</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: [無効] に設定されたフロー経由のゲストセルフサービス サインアップを有効にする</t>
+          <t>コンプライアンスコントロールは、必要なコンプライアンス要件に対して緑色です</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4500,13 +4496,13 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,34 +4521,34 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>セキュリティアラート</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: コラボレーションの制限が [指定したドメインへの招待を許可する] に設定されています。</t>
+          <t>セキュリティ アラートには、過去 24 時間以内に生成されたもののみが含まれます (古いセキュリティ アラートを修復または無効にします)。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4556,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,34 +4567,38 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>セキュリティ スコア</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>アクセスレビュー: すべてのグループで有効</t>
-        </is>
-      </c>
-      <c r="D83" s="22" t="n"/>
+          <t>Security Center によって保護されているすべてのサブスクリプションが表示されます (サブスクリプション フィルターは設定されていません)。</t>
+        </is>
+      </c>
+      <c r="D83" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベストプラクティス - 透明性</t>
+        </is>
+      </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズアプリケーション</t>
+          <t>ブック</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>同意とアクセス許可: 確認済みの発行元からのアプリのユーザーの同意を許可する</t>
+          <t>連続エクスポートが有効になっている場合、既定のブックはカスタム セキュリティ ダッシュボードに発行されます。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4638,13 +4638,13 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズアプリケーション</t>
+          <t>非常用アカウント</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
+          <t>少なくとも 2 つの非常用アカウントが作成され、その使用に関するポリシーが存在する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4684,13 +4684,13 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>カスタムドメイン</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>検証済みの顧客ドメインのみが登録されます。</t>
+          <t>条件付きアクセス ポリシー/アクセス制御を構成する</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4730,13 +4730,13 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,29 +4760,29 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>セルフサービスのパスワードリセットポリシー要件に準拠していることが確認されました。</t>
+          <t>条件:制限された場所</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,29 +4806,29 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>ユーザーに認証情報の再確認を求めるまでの日数の設定がゼロに設定されていない</t>
+          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,29 +4852,29 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセットに必要なメソッドの設定数が選択されている</t>
+          <t>アクセス制御: 管理者に MFA を要求する</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>「ユーザーがアプリケーションを登録できる」を無効にする</t>
+          <t>アクセス制御: Azure 管理に MFA を要求する</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4914,13 +4914,13 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
+          <t>アクセス制御: レガシープロトコルのブロック</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4960,13 +4960,13 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>「LinkedInアカウント接続」を無効にする</t>
+          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5006,13 +5006,13 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>カスタムドメイン</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>有効にし、Sentinelでログ分析ワークスペースに送信する</t>
+          <t>検証済みの顧客ドメインのみが登録されます</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5052,13 +5052,13 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM が有効</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>特権 ID 管理が有効</t>
+          <t>有効になり、センチネルを使用してログ分析ワークスペースに送信する</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5098,13 +5098,13 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,29 +5128,29 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM が有効</t>
+          <t>エンタープライズアプリケーション</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮(常設アクセスの削減)</t>
+          <t>同意と権限: 検証済み発行元からのアプリに対するユーザーの同意を許可する</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,29 +5174,29 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>エンタープライズアプリケーション</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセスポリシー/アクセス制御の構成</t>
+          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,29 +5220,29 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>条件: 制限された場所</t>
+          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
+          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されていますか?] に設定されています。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5282,13 +5282,13 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,29 +5312,29 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: 管理者に MFA を要求する</t>
+          <t>外部コラボレーション設定: ゲスト招待設定を [特定の管理者ロールに割り当てられたユーザーのみ] に設定</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: Azure 管理に MFA を要求する</t>
+          <t>外部コラボレーション設定: [無効] に設定されたフローを使用してゲスト セルフサービス サインアップを有効にする</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5374,13 +5374,13 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: ブロック レガシー プロトコル</t>
+          <t>外部コラボレーション設定: コラボレーション制限が [指定したドメインへの招待を許可する] に設定されている</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5420,13 +5420,13 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,29 +5450,29 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
+          <t>アクセス レビュー: すべてのグループに対して有効</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5501,12 +5501,12 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>ゲストユーザーアカウントを追跡するポリシー(つまり、使用状況/削除/無効化)はありますか?</t>
+          <t>ゲストユーザーアカウントを追跡するポリシーはありますか(つまり、使用/削除/無効化)?</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t>お客様が文書化したポリシー</t>
+          <t>顧客が文書化したポリシー</t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティセキュアスコア</t>
+          <t>ID セキュリティ スコア</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
@@ -5592,29 +5592,29 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>ガラスのアカウントを破る</t>
+          <t>PIM が有効</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>少なくとも 2 つの非常口アカウントが作成され、その使用に関するポリシーが存在します。</t>
+          <t>特権 ID 管理が有効</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>PIM が有効</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を活用して VM アクセスを制御する</t>
+          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮します(永続的なアクセスを減らします)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5654,13 +5654,13 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,34 +5679,34 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを軽減</t>
+          <t>セルフサービス パスワード リセット ポリシーの要件が準拠していることが確認されました。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことにより、VMS を展開するための特権アクセスをセキュリティで保護</t>
+          <t>認証情報がゼロに設定されていないことをユーザーに再確認するまでの日数を設定する</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5746,13 +5746,13 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,34 +5771,34 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
+          <t>パスワードのリセットに必要な方法の数を設定します</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,34 +5817,34 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>災害復旧ソリューションの展開とテスト</t>
+          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミス リソースへの最高の特権アクセス権を持つアカウントを同期しないでください。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,41 +5863,41 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>可用性セット</t>
+          <t>グローバル管理者の数を 5 人未満に制限する</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,34 +5908,34 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>アベイラビリティーゾーン</t>
+          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,34 +5954,34 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>地域のフォールトトレランス</t>
+          <t>すべての重大な影響管理者がエンタープライズ ディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>マルウェアからの保護</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションのインストール</t>
+          <t>定期的なアクセス レビューを構成して、時間の経過と共に不要なアクセス許可を取り消す</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6021,13 +6021,13 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,41 +6046,41 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>マルウェアからの保護</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションをセキュリティセンターと統合する</t>
+          <t>重大な影響の管理者が、高度なセキュリティ保護と監視を備えたワークステーションを使用するようにする</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションによる更新管理を使用して VM を最新の状態に保つ</t>
+          <t>正社員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6112,20 +6112,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,41 +6136,41 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>展開する Windows イメージに最新のレベルの更新プログラムが適用されていることを確認する</t>
+          <t>クラウド ID を既存の ID システムと同期します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
+          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6202,13 +6202,13 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>VM で暗号化を有効にする</t>
+          <t>インターネットに接続するサービスに対して安全でないレガシープロトコルを無効にします。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6248,20 +6248,20 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>暗号化のためのセキュリティ層を追加するためのキー暗号化キー (KEK) の追加</t>
+          <t>シングル サインオンを有効にする</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6293,13 +6293,13 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,34 +6318,34 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>ロールバックの目的で暗号化の前にディスクのスナップショットを作成する</t>
+          <t>「ユーザーはアプリケーションを登録できる」を無効にする</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>中央ネットワーク グループのみがネットワーク リソースに対するアクセス許可を持っていることを確認する</t>
+          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6385,13 +6385,13 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>「ANY」ソースIPアデスからのアクセスを許可する公開されたVMを識別して修復する</t>
+          <t>「LinkedInアカウント接続」を無効にする</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6431,13 +6431,13 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>分析ルール</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
+          <t>お客様が分析ルールを有効にし、インシデントを構成した</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6477,13 +6477,13 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>インターネット アクセスを削除し、RDP 用のジャンプ サーバーを実装する</t>
+          <t>すべてのテナントに含まれる 少なくとも 1 つの Log Analytics ワークスペースで Sentinel が有効になっている</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6523,13 +6523,13 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたは高速ルートを実装する</t>
+          <t>お客様はセンチネルのアーキテクチャを理解しています</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6569,20 +6569,20 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,41 +6593,41 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティの強化とフットプリントの削減を実現</t>
+          <t>お客様は、複数のSentinelインスタンス間でインシデントを監視する方法を知っています</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>すべてのテナントで、少なくとも1つのLog AnalyticsワークスペースでSentinelが有効になっている</t>
+          <t>Azure Active Directory の構成済みで "最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6659,20 +6659,20 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>お客様がSentinelアーキテクチャを理解している</t>
+          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6704,20 +6704,20 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,36 +6733,36 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>お客様は、複数のSentinelインスタンスにわたるインシデントを監視する方法を熟知しています。</t>
+          <t>Azure アクティビティが構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,36 +6778,36 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>24時間以上オープンするインシデントはありません</t>
+          <t>Microsoft Defender for Cloud が構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,36 +6823,36 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>ニュースとガイド</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>お客様には[ニュースとガイド]タブが表示されている。</t>
+          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,36 +6868,36 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>UEBA</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示される</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,12 +6913,12 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Received Log Received' が今日表示される</t>
+          <t>セキュリティイベントはAMAで構成されており、「最後に受信したログ」が今日表示されます</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6929,20 +6929,20 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6958,12 +6958,12 @@
       </c>
       <c r="B135" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータを送信していることを確認する</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6974,20 +6974,20 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7003,12 +7003,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティが構成され、"前回受信したログ" が今日表示されます</t>
+          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータを送信していることを確認する</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7019,20 +7019,20 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7048,12 +7048,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud が構成され、「最後に受信したログ」が本日表示される</t>
+          <t>AWS 用コネクタ</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7064,20 +7064,20 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7093,12 +7093,12 @@
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>GCP 用コネクタ</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7109,20 +7109,20 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,36 +7138,36 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>ニュース&amp;ガイド</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示されます。</t>
+          <t>顧客には News &amp; Guides タブが表示されています</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,36 +7183,36 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベントは AMA で構成されており、"最後に受信したログ" は今日表示されます。</t>
+          <t>24時間以上開いているインシデントはありません</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,36 +7228,36 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>設定</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>お客様が日次上限を有効にしていない</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,36 +7273,36 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>上波</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>UEBA 構成済み (センチネル/設定/設定/構成 UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>AWS のコネクタ</t>
+          <t>Azure ポリシーを活用した VM アクセスの制御</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7334,20 +7334,20 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,41 +7358,41 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>GCP用コネクタ</t>
+          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを減らす</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,41 +7403,41 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>分析ルール</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>お客様がアナリティクスルールを有効にし、インシデントを設定しました</t>
+          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことで、VMSをデプロイするための特権アクセスをセキュリティで保護します</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,41 +7448,41 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>設定</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>お客様は日次上限を有効にしていません</t>
+          <t>VM で暗号化を有効にする</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>構成</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium がデプロイされました</t>
+          <t>暗号化のセキュリティ層を追加するためのキー暗号化キー(KEK)の追加</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7514,20 +7514,20 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,41 +7538,41 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>構成</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール経由で有効なクワッド ゼロ/強制チューニング</t>
+          <t>ロールバックの目的で暗号化する前にディスクのスナップショットを取得する</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>許可されたユーザーのみを使用可能にするように設定された RBAC</t>
+          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7604,20 +7604,20 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>診断が有効になり、メトリックが Log Analytics ワークスペースに送信される</t>
+          <t>障害復旧ソリューションの展開とテスト</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7649,20 +7649,20 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,41 +7673,41 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>ハブと仮想ネットワークは、ファイアウォールプレミアムを介して保護または接続されています</t>
+          <t>可用性セット</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,41 +7718,41 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
+          <t>アベイラビリティーゾーン</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,41 +7763,41 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: 親ポリシーが構成されている</t>
+          <t>地域のフォールトトレランス</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>VM の更新を管理する</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ルール コレクションが定義されている</t>
+          <t>Azure Automation による更新管理を使用して VM を最新の状態に保つ</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7829,20 +7829,20 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,41 +7853,41 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>VM の更新を管理する</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: DNAT ポリシーが定義されている</t>
+          <t>展開用の Windows イメージに最新レベルの更新プログラムが適用されていることを確認する</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>VM の更新を管理する</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ネットワークルールが定義されている</t>
+          <t>クラウド用 Microsoft Defender を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7919,20 +7919,20 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>マルウェアから保護する</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アプリケーション ルールが定義されている</t>
+          <t>マルウェア対策ソリューションをインストールする</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7964,20 +7964,20 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,41 +7988,41 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>マルウェアから保護する</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS:機能が理解され、適用されているか、または適用されていないか</t>
+          <t>マルウェア対策ソリューションをセキュリティ センターと統合する</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス: アラートと拒否に設定</t>
+          <t>中央ネットワーク グループのみがネットワーク リソースへのアクセス許可を持っていることを確認する</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8054,20 +8054,20 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス:許可リスト(使用されているかどうかを正当化する - つまりパフォーマンス)</t>
+          <t>"ANY" ソース IP アドレスからのアクセスを許可する公開された VM を識別して修復する</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8099,20 +8099,20 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS が有効</t>
+          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8144,20 +8144,20 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS が有効</t>
+          <t>インターネットアクセスを削除し、RDP用のジャンプサーバーを実装する</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8189,20 +8189,20 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>SNAT: 設定済み</t>
+          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたはエクスプレスルートを実装します</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8234,20 +8234,20 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,41 +8258,41 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリックIPに対して有効</t>
+          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティを強化し、フットプリントを削減します</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10772,12 +11510,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10797,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10871,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -10893,7 +11631,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10903,7 +11641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解しているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -10935,7 +11673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -10952,7 +11690,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/spreadsheet/security_checklist.ja.xlsx
+++ b/spreadsheet/security_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure セキュリティ レビュー チェックリスト</t>
+          <t>Azure Security Review Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,34 +1095,34 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ センター/ディフェンダーは、すべてのサブスクリプションで有効にします。</t>
+          <t>許可されたユーザーのみを有効にするように設定された RBAC</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>構成</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ センター/ディフェンダーがすべてのログ分析ワークスペースで有効</t>
+          <t>Azure Firewall Premium がデプロイされました</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1162,13 +1162,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,34 +1187,34 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>構成</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>データ収集は「共通」に設定</t>
+          <t>クワッド ゼロ/フォース チューニングが Azure ファイアウォール経由で有効になっている</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,34 +1233,34 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>DDOS保護</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Defender for Cloud の強化されたセキュリティ機能はすべて有効になっています</t>
+          <t>ファイアウォールのパブリック IP に対して有効</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>会社のポリシーに従って自動プロビジョニングを有効にする (ポリシーが存在する必要があります)</t>
+          <t>診断が有効で、Log Analytics ワークスペースにメトリックが送信される</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1300,13 +1300,13 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,34 +1325,34 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>会社のポリシーに従って有効な電子メール通知 (ポリシーが存在する必要があります)</t>
+          <t>ハブと仮想ネットワークは、ファイアウォール プレミアムを介して保護または接続されています</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,34 +1371,34 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>統合を有効にするオプションが選択されている</t>
+          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,34 +1417,34 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>CI/CD 統合が構成されている</t>
+          <t>ポリシー: 親ポリシーが構成されている</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7bae4-4th-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>連続エクスポート「イベントハブ」は、サードパーティのSIEMを使用している場合に有効になります</t>
+          <t>ポリシー: ルール コレクションが定義されています</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1484,13 +1484,13 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,34 +1509,34 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>継続的なエクスポート 'Log Analytics Workspace' は、Azure Sentinel を使用していない場合に有効になります。</t>
+          <t>ポリシー: DNAT ポリシーが定義されています</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>AWS で有効になっているクラウドコネクタ</t>
+          <t>ポリシー: ネットワーク ルールが定義されています</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1576,13 +1576,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>GCP で有効なクラウドコネクタ</t>
+          <t>ポリシー: アプリケーション ルールが定義されています</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1622,13 +1622,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,34 +1647,34 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>価格と設定</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを使用する場合は、Microsoft Defender for Cloud Apps との統合を検討して、アプリケーションのアクセスをリアルタイムで監視し、高度なセキュリティ制御を適用することを検討してください。</t>
+          <t>DNS: 機能を理解し、適用した、または適用しない</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,34 +1693,34 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>推奨 事項</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>すべての推奨事項は、必要でない場合は修復または無効にされました。</t>
+          <t>脅威インテリジェンス: Set to Alert &amp; Deny</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>推奨 事項</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>セキュリティスコア&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>マイクロソフトのすべてのお客様の最小目標は 70% です。</t>
-        </is>
-      </c>
+          <t>脅威インテリジェンス:許可リスト(それらが使用されているかどうかを正当化する-つまりパフォーマンス)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1764,13 +1760,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,34 +1785,34 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>セキュリティアラート</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ警告には、過去 24 時間以内に生成されたもののみが含まれます (古いセキュリティ警告を修復または無効にする)</t>
+          <t>TLS が有効</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,34 +1831,34 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>ブック</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>継続的エクスポートが有効になっている場合、カスタム セキュリティ ダッシュボードにパブリッシュされた既定のブック</t>
+          <t>IDPS が有効</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,34 +1877,34 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>コミュニティ</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>お客様は「コミュニティ」ページの価値を認識しており、レビュー用に定期的なリズムを設定しています。</t>
+          <t>SNAT: 構成済み</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>セキュアスコア</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Security Center によって保護されているすべてのサブスクリプションが表示されます (サブスクリプション フィルター セットなし)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用のベストプラクティス - 透明性</t>
-        </is>
-      </c>
+          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1952,13 +1944,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>法規制の遵守</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンスコントロールは、必要なコンプライアンス要件に対して緑色です</t>
+          <t>AppGW すべての外部向け Web サービスは、WAF が有効になっているアプリケーション ゲートウェイの背後にあります</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -1998,20 +1990,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>重大度の高い VM の脆弱性はゼロ (空) です。</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>AppGW すべての内部向け Web サービスは、WAF が有効になっているアプリケーション ゲートウェイの背後にあります</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2047,20 +2035,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,41 +2059,41 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>アプリケーション ゲートウェイ</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>ハブは Azure ファイアウォールによって保護されています。</t>
+          <t>AppGW - 外部向けで TLS/SSL が有効になっており、すべてのトラフィックを 443 (ポート 80 トラフィックなし) にリダイレクトします。</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,45 +2104,41 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>接続</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークはファイアウォールで保護されています</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>ExpressRoute または VPN を使用してオンプレミス環境から Azure リソースにアクセスする</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,41 +2149,41 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>DDOS保護</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>DDoS 標準が有効</t>
+          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>カバレッジ</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションがカバーされていることを確認します (変更する価格と設定を参照)。</t>
+          <t>フロント ドア RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2231,13 +2215,13 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2261,12 +2245,12 @@
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP アドレス</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP を持つ VM は NSG によって保護される必要があります。</t>
+          <t>フロント ドアが WAF ポリシーに関連付けられている</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2277,13 +2261,13 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2307,19 +2291,15 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP アドレス</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP を持つ VM は、Azure Firewall Premium の背後に移動されます。</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2327,13 +2307,13 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2357,19 +2337,15 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>パブリック IP アドレス</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>パブリックIPを必要としないVMにはパブリックIPがありません(つまり、内部RDPのみ)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>Front Door リダイレクト ポート 80 からポート 443 が構成されている (リスナー)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2377,13 +2353,13 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2407,29 +2383,29 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>Front Door 診断ログが ApplicationGatewayAccessLog と ApplicationGateway FirewallLog を Sentinel LAW に送信する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2453,27 +2429,23 @@
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>NSG インバウンド セキュリティ規則に [ソース] フィールドに * (ワイルドカード) が含まれていません</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>NSG RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2503,27 +2475,27 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSG アウトバウンド セキュリティ ルールは、ファイアウォール経由でルーティングされないトラフィックの特定の IP アドレスへのトラフィックを制御するために使用されます。</t>
+          <t>NSG 受信セキュリティ規則の [ソース] フィールドに * (ワイルドカード) が含まれていない</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2553,27 +2525,27 @@
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG には、ソースを * (ワイルドカード) として配置していません。</t>
+          <t>NSG 送信セキュリティ規則は、ファイアウォール経由でルーティングされないトラフィックの特定の IP アドレスへのトラフィックを制御するために使用されます。</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2603,29 +2575,33 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>NSG Diagnostics が NetworkSecurityGroupEvent および NetworkSecurityGroupRuleCounter トラフィックを Sentinel LAW に送信する</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>NSG には、* (ワイルドカード) としてのソースがありません。</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2649,12 +2625,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>日本エスジー</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>NSG 診断は、NetworkSecurityGroupEvent および NetworkSecurityGroupRuleCounter トラフィックをSentinel LAW に送信します。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2665,13 +2641,13 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2695,12 +2671,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>グローバル IP アドレス</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>ゼロ トラストの場合、UDR を使用してすべてのトラフィックが Azure Firewall Premium に送信されます。</t>
+          <t>パブリック IP を持つ VM は NSG によって保護される必要がある</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2711,13 +2687,13 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2741,33 +2717,33 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>グローバル IP アドレス</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>すべてのトラフィックを AzureFirewallPremium に送信しない UDR は既知であり、文書化されています。</t>
+          <t>パブリック IP を持つ VM は、Azure ファイアウォール プレミアムの背後に移動されます。</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2791,15 +2767,19 @@
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>グローバル IP アドレス</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>お客様は、Azure ネットワークの既定値 / Azure での SDN の既定のルーティングに精通している</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>パブリック IP を必要としない VM にはパブリック IP がありません (つまり、内部 RDP のみ)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2807,13 +2787,13 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2837,19 +2817,15 @@
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>VNet RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>お客様の運用上のベスト・プラクティス - 検証</t>
-        </is>
-      </c>
+          <t>UDR RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2857,20 +2833,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2886,12 +2862,12 @@
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>VNet セキュリティの推奨事項は修復され、「危険にさらされている」VNet はありません。</t>
+          <t>ゼロ トラストの場合、UDR を使用してすべてのトラフィックを Azure ファイアウォール プレミアムに送信します。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2902,13 +2878,13 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2932,29 +2908,33 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>VNet ピアリング接続が理解され、予想されるトラフィック フローが文書化されている</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>すべてのトラフィックを AzureFirewallPremium に送信しない UDR は既知であり、文書化されています。</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>VNet サービス エンドポイントが使用中であり、従来のパブリック サービス エンドポイントは存在しません</t>
+          <t>お客様は、Azure での Azure ネットワークの既定値/SDN の既定のルーティングに精通している</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2994,20 +2974,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,31 +3008,35 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet プライベート エンドポイントはオンプレミス環境からのアクセスを許可するために使用されており、従来のパブリック エンドポイントは存在しません</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>VNet RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet 監視が有効になりました</t>
+          <t>VNet のセキュリティに関する推奨事項が修復され、"リスクのある" VNet がない</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3084,13 +3068,13 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Azure Kubernetes Service (AKS) のネットワーク ポリシーを使用したポッド間のトラフィックのセキュリティ保護</t>
+          <t>VNet ピアリング接続が理解され、予想されるトラフィック フローが文書化されている</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3130,13 +3114,13 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VNet NVA(アプライアンス)のお客様は、公開されたアーキテクチャ パターンに従っています</t>
+          <t>VNet サービス エンドポイントが使用中であり、従来のパブリック サービス エンドポイントが存在しない</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3176,13 +3160,13 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>VNet 診断設定が有効で、VMProtectionAlert を Azure Sentinel LAW に送信している</t>
+          <t>VNet プライベート エンドポイントはオンプレミス環境からのアクセスを許可するために使用中であり、レガシ パブリック エンドポイントは存在しません</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3222,20 +3206,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3235,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute または VPN を使用してオンプレミス環境から Azure リソースにアクセスする</t>
+          <t>VNet 監視が有効</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3267,13 +3251,13 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3281,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>Azure Kubernetes サービス (AKS) のネットワーク ポリシーを使用してポッド間のトラフィックをセキュリティで保護する</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3313,20 +3297,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3342,12 +3326,12 @@
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN のお客様は、セキュアハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよび監視しています。</t>
+          <t>VNet NVA (アプライアンス) のお客様は、公開されたアーキテクチャ パターンに従います</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3358,20 +3342,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3371,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>仮想ネットワーク</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC は、ネットワーク セキュリティ チームへのアクセスを制限するために使用されます。</t>
+          <t>VNet 診断設定が有効になっており、VMProtectionAlerts が Azure Sentinel LAW に送信されている</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3403,20 +3387,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3432,12 +3416,12 @@
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての外部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>VWAN RBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3448,20 +3432,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3477,12 +3461,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>AppGW すべての内部向け Web サービスが、WAF が有効になっているアプリケーション ゲートウェイに依存しています。</t>
+          <t>VWAN のお客様は、セキュア ハブまたは外部ファイアウォールを使用してトラフィックをルーティングおよびモニタしています。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3493,20 +3477,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションゲートウェイ</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - 外部フェーシングでは TLS/SSL が有効になっており、すべてのトラフィックを 443 にリダイレクトします (ポート 80 トラフィックなし)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>重大度の高い VM の脆弱性はゼロ (空) です</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -3538,20 +3526,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,41 +3550,41 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>コミュニティ</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>フロントドアRBACは、ネットワークセキュリティチームへのアクセスを制限するために使用されます</t>
+          <t>お客様は「コミュニティ」ページの価値を認識しており、定期的にレビューするように設定されています</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>カバレッジ</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>フロント ドアは WAF ポリシーに関連付けられています。</t>
+          <t>すべてのサブスクリプションがカバーされていることを確認します (変更する価格と設定を参照)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3628,20 +3616,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,34 +3640,34 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>フロント ドア TLS/SSL ポリシーが構成されている</t>
+          <t>ハブは Azure ファイアウォールによって保護されています</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,34 +3686,38 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Front Door リダイレクト ポート 80 からポート 443 が設定されています (リスナー)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>仮想ネットワークはファイアウォールによって保護されています</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベスト プラクティス - 検証</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,34 +3736,34 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ファイアウォール マネージャー</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>DDoS 標準が有効</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリック IP (すべてのパブリック IP) に対して有効</t>
+          <t>セキュリティ センター/Defender がすべてのサブスクリプションで有効になっている</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3811,20 +3803,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>フルタイムの従業員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
+          <t>セキュリティ センター/ディフェンダーがすべての Log Analytics ワークスペースで有効になっている</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3856,13 +3848,13 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,34 +3873,34 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID を既存の ID システムと同期します。</t>
+          <t>「共通」に設定されたデータ収集</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
+          <t>クラウドの強化されたセキュリティ機能に対する Defender がすべて有効になっている</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3948,13 +3940,13 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,34 +3965,34 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>インターネットに接続するサービスの安全でないレガシ プロトコルを無効にします。</t>
+          <t>会社のポリシーに従って有効になっている自動プロビジョニング (ポリシーが存在する必要があります)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,34 +4011,34 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>テナント</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>シングルサインオンの有効化</t>
+          <t>会社のポリシーに従って有効になっている電子メール通知 (ポリシーが存在する必要があります)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,34 +4057,34 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミスのリソースへの最高の特権アクセスを持つアカウントを同期しないでください。</t>
+          <t>統合を有効にするオプションが選択されています</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,34 +4103,34 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>グローバル管理者の数を 5 人未満に制限する</t>
+          <t>CI/CD 統合が構成されている</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
+          <t>連続エクスポート "イベント ハブ" は、サードパーティの SIEM を使用している場合に有効になります</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4178,13 +4170,13 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,34 +4195,34 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>すべての重大な影響の管理者がエンタープライズディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
+          <t>継続的エクスポートの "Log Analytics ワークスペース" は、Azure Sentinel を使用していない場合に有効になります。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>定期的なアクセス レビューを構成して、不要なアクセス許可を時間の経過と共に取り消す</t>
+          <t>AWS で有効になっているクラウドコネクタ</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4270,13 +4262,13 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,34 +4287,34 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>特権管理</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>重大な影響を被る管理者が、セキュリティ保護と監視を強化したワークステーションを使用するようにする</t>
+          <t>GCP で有効になっているクラウド コネクタ</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,34 +4333,34 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>価格と設定</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
+          <t>Azure AD アプリケーション プロキシを使用している場合は、Microsoft Defender for Cloud Apps と統合して、アプリケーションのアクセスをリアルタイムで監視し、高度なセキュリティ制御を適用することを検討してください。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,34 +4379,34 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>推奨 事項</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されています?] に設定されています。</t>
+          <t>すべての推奨事項は修復されるか、不要な場合は無効になります。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>推奨 事項</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: ゲスト招待の設定が [特定の管理者ロールに割り当てられているユーザーのみ] に設定されています。</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>セキュリティスコア&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>すべてのお客様のマイクロソフトの最小目標は 70% です</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -4454,13 +4450,13 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>法規制の遵守</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: [無効] に設定されたフロー経由のゲストセルフサービス サインアップを有効にする</t>
+          <t>コンプライアンスコントロールは、必要なコンプライアンス要件に対して緑色です</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4500,13 +4496,13 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,20 +4521,24 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>セキュリティ スコア</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>外部コラボレーション設定: コラボレーションの制限が [指定したドメインへの招待を許可する] に設定されています。</t>
-        </is>
-      </c>
-      <c r="D82" s="22" t="n"/>
+          <t>Security Center によって保護されているすべてのサブスクリプションが表示されます (サブスクリプション フィルターは設定されていません)。</t>
+        </is>
+      </c>
+      <c r="D82" s="22" t="inlineStr">
+        <is>
+          <t>お客様の運用上のベストプラクティス - 透明性</t>
+        </is>
+      </c>
       <c r="E82" s="22" t="inlineStr">
         <is>
           <t>高い</t>
@@ -4546,13 +4546,13 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,17 +4571,17 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>外部アイデンティティ</t>
+          <t>セキュリティアラート</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>アクセスレビュー: すべてのグループで有効</t>
+          <t>セキュリティ アラートには、過去 24 時間以内に生成されたもののみが含まれます (古いセキュリティ アラートを修復または無効にします)。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4592,13 +4592,13 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズアプリケーション</t>
+          <t>ブック</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>同意とアクセス許可: 確認済みの発行元からのアプリのユーザーの同意を許可する</t>
+          <t>連続エクスポートが有効になっている場合、既定のブックはカスタム セキュリティ ダッシュボードに発行されます。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4638,13 +4638,13 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>エンタープライズアプリケーション</t>
+          <t>非常用アカウント</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
+          <t>少なくとも 2 つの非常用アカウントが作成され、その使用に関するポリシーが存在する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4684,13 +4684,13 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>カスタムドメイン</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>検証済みの顧客ドメインのみが登録されます。</t>
+          <t>条件付きアクセス ポリシー/アクセス制御を構成する</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4730,13 +4730,13 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,29 +4760,29 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>セルフサービスのパスワードリセットポリシー要件に準拠していることが確認されました。</t>
+          <t>条件:制限された場所</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,29 +4806,29 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>ユーザーに認証情報の再確認を求めるまでの日数の設定がゼロに設定されていない</t>
+          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,29 +4852,29 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセット</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>パスワードのリセットに必要なメソッドの設定数が選択されている</t>
+          <t>アクセス制御: 管理者に MFA を要求する</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>「ユーザーがアプリケーションを登録できる」を無効にする</t>
+          <t>アクセス制御: Azure 管理に MFA を要求する</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4914,13 +4914,13 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
+          <t>アクセス制御: レガシープロトコルのブロック</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4960,13 +4960,13 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>ユーザー設定</t>
+          <t>条件付きアクセス ポリシー</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>「LinkedInアカウント接続」を無効にする</t>
+          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5006,13 +5006,13 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>カスタムドメイン</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>有効にし、Sentinelでログ分析ワークスペースに送信する</t>
+          <t>検証済みの顧客ドメインのみが登録されます</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5052,13 +5052,13 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM が有効</t>
+          <t>診断設定</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>特権 ID 管理が有効</t>
+          <t>有効になり、センチネルを使用してログ分析ワークスペースに送信する</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5098,13 +5098,13 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,29 +5128,29 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM が有効</t>
+          <t>エンタープライズアプリケーション</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮(常設アクセスの削減)</t>
+          <t>同意と権限: 検証済み発行元からのアプリに対するユーザーの同意を許可する</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,29 +5174,29 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>エンタープライズアプリケーション</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセスポリシー/アクセス制御の構成</t>
+          <t>同意と権限: 選択したグループ所有者にグループ所有者の同意を許可する</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,29 +5220,29 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>条件: 制限された場所</t>
+          <t>ID プロバイダー: 外部 ID プロバイダーが既知であることを確認する</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: すべてのユーザーに対して MFA が有効</t>
+          <t>外部コラボレーション設定: ゲスト ユーザー アクセスが [ゲスト ユーザー アクセスが制限されていますか?] に設定されています。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5282,13 +5282,13 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,29 +5312,29 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: 管理者に MFA を要求する</t>
+          <t>外部コラボレーション設定: ゲスト招待設定を [特定の管理者ロールに割り当てられたユーザーのみ] に設定</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: Azure 管理に MFA を要求する</t>
+          <t>外部コラボレーション設定: [無効] に設定されたフローを使用してゲスト セルフサービス サインアップを有効にする</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5374,13 +5374,13 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: ブロック レガシー プロトコル</t>
+          <t>外部コラボレーション設定: コラボレーション制限が [指定したドメインへの招待を許可する] に設定されている</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5420,13 +5420,13 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,29 +5450,29 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセス ポリシー</t>
+          <t>外部アイデンティティ</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御: デバイスを準拠としてマークする必要がある</t>
+          <t>アクセス レビュー: すべてのグループに対して有効</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5501,12 +5501,12 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>ゲストユーザーアカウントを追跡するポリシー(つまり、使用状況/削除/無効化)はありますか?</t>
+          <t>ゲストユーザーアカウントを追跡するポリシーはありますか(つまり、使用/削除/無効化)?</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t>お客様が文書化したポリシー</t>
+          <t>顧客が文書化したポリシー</t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティセキュアスコア</t>
+          <t>ID セキュリティ スコア</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
@@ -5592,29 +5592,29 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>ガラスのアカウントを破る</t>
+          <t>PIM が有効</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>少なくとも 2 つの非常口アカウントが作成され、その使用に関するポリシーが存在します。</t>
+          <t>特権 ID 管理が有効</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>PIM が有効</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を活用して VM アクセスを制御する</t>
+          <t>「ジャストインタイム」(JIT)アクセスを実装して、特権アカウントの公開時間をさらに短縮します(永続的なアクセスを減らします)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5654,13 +5654,13 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,34 +5679,34 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを軽減</t>
+          <t>セルフサービス パスワード リセット ポリシーの要件が準拠していることが確認されました。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことにより、VMS を展開するための特権アクセスをセキュリティで保護</t>
+          <t>認証情報がゼロに設定されていないことをユーザーに再確認するまでの日数を設定する</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5746,13 +5746,13 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,34 +5771,34 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>パスワードのリセット</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
+          <t>パスワードのリセットに必要な方法の数を設定します</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,34 +5817,34 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>災害復旧ソリューションの展開とテスト</t>
+          <t>エンタープライズ ID システムをクラウド ディレクトリと同期するときに、オンプレミス リソースへの最高の特権アクセス権を持つアカウントを同期しないでください。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,41 +5863,41 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>可用性セット</t>
+          <t>グローバル管理者の数を 5 人未満に制限する</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,34 +5908,34 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>アベイラビリティーゾーン</t>
+          <t>Azure AD ロールの割り当てにグループを使用し、ロールの割り当てを委任する</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,34 +5954,34 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>地域のフォールトトレランス</t>
+          <t>すべての重大な影響管理者がエンタープライズ ディレクトリによって管理され、組織のポリシーの適用に従うようにします。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>マルウェアからの保護</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションのインストール</t>
+          <t>定期的なアクセス レビューを構成して、時間の経過と共に不要なアクセス許可を取り消す</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6021,13 +6021,13 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,41 +6046,41 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>マルウェアからの保護</t>
+          <t>特権管理</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>マルウェア対策ソリューションをセキュリティセンターと統合する</t>
+          <t>重大な影響の管理者が、高度なセキュリティ保護と監視を備えたワークステーションを使用するようにする</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションによる更新管理を使用して VM を最新の状態に保つ</t>
+          <t>正社員とエンタープライズ リソースの ID を管理するための単一のエンタープライズ ディレクトリを確立します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6112,20 +6112,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,41 +6136,41 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>展開する Windows イメージに最新のレベルの更新プログラムが適用されていることを確認する</t>
+          <t>クラウド ID を既存の ID システムと同期します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>VM の更新の管理</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
+          <t>クラウド ID サービスを使用して、ベンダー、パートナー、顧客などの従業員以外のアカウントを、オンプレミスのディレクトリに含めるのではなく、ホストします。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6202,13 +6202,13 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>VM で暗号化を有効にする</t>
+          <t>インターネットに接続するサービスに対して安全でないレガシープロトコルを無効にします。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6248,20 +6248,20 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>テナント</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>暗号化のためのセキュリティ層を追加するためのキー暗号化キー (KEK) の追加</t>
+          <t>シングル サインオンを有効にする</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6293,13 +6293,13 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,34 +6318,34 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>VHD を暗号化する</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>ロールバックの目的で暗号化の前にディスクのスナップショットを作成する</t>
+          <t>「ユーザーはアプリケーションを登録できる」を無効にする</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>中央ネットワーク グループのみがネットワーク リソースに対するアクセス許可を持っていることを確認する</t>
+          <t>管理ポータル (portal.azure.com) へのアクセスを管理者のみに制限する</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6385,13 +6385,13 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>ユーザー設定</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>「ANY」ソースIPアデスからのアクセスを許可する公開されたVMを識別して修復する</t>
+          <t>「LinkedInアカウント接続」を無効にする</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6431,13 +6431,13 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>分析ルール</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
+          <t>お客様が分析ルールを有効にし、インシデントを構成した</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6477,13 +6477,13 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>インターネット アクセスを削除し、RDP 用のジャンプ サーバーを実装する</t>
+          <t>すべてのテナントに含まれる 少なくとも 1 つの Log Analytics ワークスペースで Sentinel が有効になっている</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6523,13 +6523,13 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたは高速ルートを実装する</t>
+          <t>お客様はセンチネルのアーキテクチャを理解しています</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6569,20 +6569,20 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,41 +6593,41 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>番兵</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t>直接インターネット接続を制限する</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティの強化とフットプリントの削減を実現</t>
+          <t>お客様は、複数のSentinelインスタンス間でインシデントを監視する方法を知っています</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>すべてのテナントで、少なくとも1つのLog AnalyticsワークスペースでSentinelが有効になっている</t>
+          <t>Azure Active Directory の構成済みで "最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6659,20 +6659,20 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>お客様がSentinelアーキテクチャを理解している</t>
+          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6704,20 +6704,20 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,36 +6733,36 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>お客様は、複数のSentinelインスタンスにわたるインシデントを監視する方法を熟知しています。</t>
+          <t>Azure アクティビティが構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,36 +6778,36 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>24時間以上オープンするインシデントはありません</t>
+          <t>Microsoft Defender for Cloud が構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,36 +6823,36 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>ニュースとガイド</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>お客様には[ニュースとガイド]タブが表示されている。</t>
+          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,36 +6868,36 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>UEBA</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示される</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,12 +6913,12 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Received Log Received' が今日表示される</t>
+          <t>セキュリティイベントはAMAで構成されており、「最後に受信したログ」が今日表示されます</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6929,20 +6929,20 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6958,12 +6958,12 @@
       </c>
       <c r="B135" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory ID Protection が構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータを送信していることを確認する</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6974,20 +6974,20 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7003,12 +7003,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティが構成され、"前回受信したログ" が今日表示されます</t>
+          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータを送信していることを確認する</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7019,20 +7019,20 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7048,12 +7048,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud が構成され、「最後に受信したログ」が本日表示される</t>
+          <t>AWS 用コネクタ</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7064,20 +7064,20 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7093,12 +7093,12 @@
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>データ コネクタ</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールが構成され、"最後に受信したログ" が今日表示されます。</t>
+          <t>GCP 用コネクタ</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7109,20 +7109,20 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,36 +7138,36 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>ニュース&amp;ガイド</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Windows ファイアウォールが構成され、[最後に受信したログ] が今日表示されます。</t>
+          <t>顧客には News &amp; Guides タブが表示されています</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,36 +7183,36 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベントは AMA で構成されており、"最後に受信したログ" は今日表示されます。</t>
+          <t>24時間以上開いているインシデントはありません</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,36 +7228,36 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>設定</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure コンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>お客様が日次上限を有効にしていない</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,36 +7273,36 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>上波</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ イベント - Azure 以外のコンピューターが接続され、ワークスペースにデータが送信されていることを確認します。</t>
+          <t>UEBA 構成済み (センチネル/設定/設定/構成 UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>AWS のコネクタ</t>
+          <t>Azure ポリシーを活用した VM アクセスの制御</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7334,20 +7334,20 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,41 +7358,41 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>データコネクタ</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>GCP用コネクタ</t>
+          <t>テンプレートを活用して VM のセットアップとデプロイのばらつきを減らす</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,41 +7403,41 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>分析ルール</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>お客様がアナリティクスルールを有効にし、インシデントを設定しました</t>
+          <t>ガバナンスを通じてリソースにアクセスできるユーザーを減らすことで、VMSをデプロイするための特権アクセスをセキュリティで保護します</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,41 +7448,41 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>番兵</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>設定</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>お客様は日次上限を有効にしていません</t>
+          <t>VM で暗号化を有効にする</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>構成</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium がデプロイされました</t>
+          <t>暗号化のセキュリティ層を追加するためのキー暗号化キー(KEK)の追加</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7514,20 +7514,20 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,41 +7538,41 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>構成</t>
+          <t>VHD を暗号化する</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール経由で有効なクワッド ゼロ/強制チューニング</t>
+          <t>ロールバックの目的で暗号化する前にディスクのスナップショットを取得する</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>許可されたユーザーのみを使用可能にするように設定された RBAC</t>
+          <t>ワークロードに複数の VM を使用して可用性を向上させる</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7604,20 +7604,20 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>診断設定</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>診断が有効になり、メトリックが Log Analytics ワークスペースに送信される</t>
+          <t>障害復旧ソリューションの展開とテスト</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7649,20 +7649,20 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,41 +7673,41 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>ハブと仮想ネットワークは、ファイアウォールプレミアムを介して保護または接続されています</t>
+          <t>可用性セット</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,41 +7718,41 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アクセス制御が構成されている (RBAC)</t>
+          <t>アベイラビリティーゾーン</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,41 +7763,41 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: 親ポリシーが構成されている</t>
+          <t>地域のフォールトトレランス</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>VM の更新を管理する</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ルール コレクションが定義されている</t>
+          <t>Azure Automation による更新管理を使用して VM を最新の状態に保つ</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7829,20 +7829,20 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,41 +7853,41 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>VM の更新を管理する</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: DNAT ポリシーが定義されている</t>
+          <t>展開用の Windows イメージに最新レベルの更新プログラムが適用されていることを確認する</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>VM の更新を管理する</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: ネットワークルールが定義されている</t>
+          <t>クラウド用 Microsoft Defender を使用して VM にセキュリティ更新プログラムを迅速に適用する</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7919,20 +7919,20 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>マルウェアから保護する</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>ポリシー: アプリケーション ルールが定義されている</t>
+          <t>マルウェア対策ソリューションをインストールする</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7964,20 +7964,20 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,41 +7988,41 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>マルウェアから保護する</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS:機能が理解され、適用されているか、または適用されていないか</t>
+          <t>マルウェア対策ソリューションをセキュリティ センターと統合する</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス: アラートと拒否に設定</t>
+          <t>中央ネットワーク グループのみがネットワーク リソースへのアクセス許可を持っていることを確認する</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8054,20 +8054,20 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>脅威インテリジェンス:許可リスト(使用されているかどうかを正当化する - つまりパフォーマンス)</t>
+          <t>"ANY" ソース IP アドレスからのアクセスを許可する公開された VM を識別して修復する</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8099,20 +8099,20 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS が有効</t>
+          <t>ジャストインタイムアクセスを使用した管理ポート(RDP、SSH)の制限</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8144,20 +8144,20 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS が有効</t>
+          <t>インターネットアクセスを削除し、RDP用のジャンプサーバーを実装する</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8189,20 +8189,20 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールマネージャ</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>SNAT: 設定済み</t>
+          <t>インターネットからRDP / SSHを使用してサーバーへの直接ログインを削除し、VPNまたはエクスプレスルートを実装します</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8234,20 +8234,20 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,41 +8258,41 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>DDOS保護</t>
+          <t>直接インターネット接続を制限する</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>ファイアウォールのパブリックIPに対して有効</t>
+          <t>Azure Bastion を RDP/SSH ブローカーとして活用して、セキュリティを強化し、フットプリントを削減します</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10772,12 +11510,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>クラウド用ディフェンダー</t>
+          <t>クラウドのディフェンダー</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10797,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10871,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -10893,7 +11631,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>VM セキュリティ チェック</t>
+          <t>VM のセキュリティ チェック</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10903,7 +11641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解しているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -10935,7 +11673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -10952,7 +11690,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>アズールファイアウォール</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
